--- a/computation_times.xlsx
+++ b/computation_times.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-20.04\home\ubuntu\InterpolationRepair\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1FE1514-3487-4AFB-AF6B-D6B2129ED256}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64EEBAD9-E7D8-4772-9CAB-238A4D87EA2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-4920" yWindow="-21720" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -51,7 +51,7 @@
     <t>&gt;100s</t>
   </si>
   <si>
-    <t>Interpolation</t>
+    <t>ISPEC</t>
   </si>
 </sst>
 </file>
@@ -157,7 +157,7 @@
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>Interpolation</c:v>
+                  <c:v>ISPEC</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>JVTS-Repair</c:v>
@@ -222,7 +222,7 @@
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>Interpolation</c:v>
+                  <c:v>ISPEC</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>JVTS-Repair</c:v>
@@ -287,7 +287,7 @@
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>Interpolation</c:v>
+                  <c:v>ISPEC</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>JVTS-Repair</c:v>
@@ -352,7 +352,7 @@
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>Interpolation</c:v>
+                  <c:v>ISPEC</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>JVTS-Repair</c:v>
@@ -417,7 +417,7 @@
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>Interpolation</c:v>
+                  <c:v>ISPEC</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>JVTS-Repair</c:v>
@@ -1554,8 +1554,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/computation_times.xlsx
+++ b/computation_times.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-20.04\home\ubuntu\InterpolationRepair\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64EEBAD9-E7D8-4772-9CAB-238A4D87EA2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5A662EF-15E4-4F56-B585-0A045A20EBAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-4920" yWindow="-21720" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-9820" yWindow="-21710" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Algorithm</t>
   </si>
@@ -39,9 +39,6 @@
     <t>Unrepaired</t>
   </si>
   <si>
-    <t>&lt;1s</t>
-  </si>
-  <si>
     <t>1s-10s</t>
   </si>
   <si>
@@ -52,6 +49,12 @@
   </si>
   <si>
     <t>ISPEC</t>
+  </si>
+  <si>
+    <t>0.1-1s</t>
+  </si>
+  <si>
+    <t>&lt;0.1s</t>
   </si>
 </sst>
 </file>
@@ -136,7 +139,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>&lt;1s</c:v>
+                  <c:v>&lt;0.1s</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -175,13 +178,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>52</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>54</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>129</c:v>
+                  <c:v>104</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -201,7 +204,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>1s-10s</c:v>
+                  <c:v>0.1-1s</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -240,13 +243,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>22</c:v>
+                  <c:v>52</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>15</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -266,7 +269,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>10s-100s</c:v>
+                  <c:v>1s-10s</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -305,13 +308,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>12</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -331,7 +334,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>&gt;100s</c:v>
+                  <c:v>10s-100s</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -370,13 +373,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>10</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -393,6 +396,71 @@
           <c:tx>
             <c:strRef>
               <c:f>Sheet1!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>&gt;100s</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$2:$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>ISPEC</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>JVTS-Repair</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>GLASS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$F$2:$F$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-C2A0-4AA5-BD86-0200B5192311}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$G$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -430,7 +498,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$F$2:$F$4</c:f>
+              <c:f>Sheet1!$G$2:$G$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -448,7 +516,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-C2A0-4AA5-BD86-0200B5192311}"/>
+              <c16:uniqueId val="{00000000-CE2B-4F77-9EAB-762DD2275685}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1552,10 +1620,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="S24" sqref="S24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1565,83 +1633,95 @@
     <col min="6" max="6" width="11.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" t="s">
         <v>4</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>5</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>6</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
         <v>7</v>
       </c>
-      <c r="F1" t="s">
-        <v>3</v>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>52</v>
+      </c>
+      <c r="D2">
+        <v>22</v>
+      </c>
+      <c r="E2">
+        <v>12</v>
+      </c>
+      <c r="F2">
+        <v>10</v>
+      </c>
+      <c r="G2">
+        <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2">
-        <v>52</v>
-      </c>
-      <c r="C2">
-        <v>22</v>
-      </c>
-      <c r="D2">
-        <v>12</v>
-      </c>
-      <c r="E2">
-        <v>10</v>
-      </c>
-      <c r="F2">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>54</v>
+        <v>26</v>
       </c>
       <c r="C3">
+        <v>28</v>
+      </c>
+      <c r="D3">
         <v>15</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>4</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>2</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>87</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>129</v>
+        <v>104</v>
       </c>
       <c r="C4">
+        <v>25</v>
+      </c>
+      <c r="D4">
         <v>4</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>6</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>3</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>20</v>
       </c>
     </row>
